--- a/MethodDemos/output/training/training checklist.xlsx
+++ b/MethodDemos/output/training/training checklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7236"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
-  <si>
-    <t>fulltext</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>header.affiliation</t>
   </si>
@@ -59,9 +56,6 @@
     <t>none (empty)</t>
   </si>
   <si>
-    <t>byline checken wies gehört</t>
-  </si>
-  <si>
     <t>DIPLOM_UND_MASTERARBEITEN</t>
   </si>
   <si>
@@ -78,6 +72,33 @@
   </si>
   <si>
     <t>tableofcontents</t>
+  </si>
+  <si>
+    <t>abstracts in header</t>
+  </si>
+  <si>
+    <t>je sprache ein div abstract</t>
+  </si>
+  <si>
+    <t>todo bei linkesten: die refs überprüfen</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>p um figures</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>header.reference</t>
   </si>
 </sst>
 </file>
@@ -113,8 +134,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -429,31 +459,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>137078</v>
@@ -468,118 +498,183 @@
         <v>139299</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>

--- a/MethodDemos/output/training/training checklist.xlsx
+++ b/MethodDemos/output/training/training checklist.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\git\MethodDemosGit\MethodDemos\output\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E136A7E1-B90E-4FD7-AF8B-BF8F6776E8EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7236"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="27">
   <si>
     <t>header.affiliation</t>
   </si>
@@ -53,9 +59,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>none (empty)</t>
-  </si>
-  <si>
     <t>DIPLOM_UND_MASTERARBEITEN</t>
   </si>
   <si>
@@ -80,15 +83,9 @@
     <t>je sprache ein div abstract</t>
   </si>
   <si>
-    <t>todo bei linkesten: die refs überprüfen</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>p um figures</t>
-  </si>
-  <si>
     <t>body</t>
   </si>
   <si>
@@ -99,12 +96,27 @@
   </si>
   <si>
     <t>header.reference</t>
+  </si>
+  <si>
+    <t>header.date</t>
+  </si>
+  <si>
+    <t>TEI</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>EMPTY</t>
+  </si>
+  <si>
+    <t>PrintLabels</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,12 +126,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -134,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -145,6 +169,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -458,224 +484,436 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
         <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2">
         <v>137078</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>231707</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>200745</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>139299</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B21" t="s">
         <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
